--- a/XurtepNominas/bin/Debug/Archivos/nominas1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominas1.xlsx
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -480,9 +480,6 @@
     <t>SAHW92050291A</t>
   </si>
   <si>
-    <t>MOCE740307LW5</t>
-  </si>
-  <si>
     <t>MORALES RAMOS ESTEBAN</t>
   </si>
   <si>
@@ -523,19 +520,15 @@
   </si>
   <si>
     <t>SANTAMARIA HERNANDEZ WIDSON JESUS</t>
-  </si>
-  <si>
-    <t>MORALES CORDOVA EFREN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -890,7 +883,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -923,7 +916,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="5" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="5" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -962,6 +958,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1372,25 +1374,25 @@
   <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD3"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="27" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="42" customWidth="1"/>
     <col min="13" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
@@ -1400,8 +1402,8 @@
     <col min="20" max="20" width="17.7109375" customWidth="1"/>
     <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" style="27" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" style="27" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" customWidth="1"/>
     <col min="30" max="30" width="23.7109375" customWidth="1"/>
@@ -1409,10 +1411,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1421,10 +1423,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1436,48 +1438,48 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="28"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="27" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="28"/>
+      <c r="S1" s="29"/>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="27" t="s">
+      <c r="W1" s="29"/>
+      <c r="X1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="27" t="s">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="28"/>
+      <c r="AA1" s="29"/>
       <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1509,13 +1511,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,43 +1566,43 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="30" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="30" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="30" t="s">
+      <c r="P2" s="34"/>
+      <c r="Q2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="31"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="32"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1671,84 +1673,6 @@
       </c>
       <c r="W3" s="4" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="19">
-        <v>218.29992277332565</v>
-      </c>
-      <c r="E4" s="19">
-        <v>290.49261630085437</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19">
-        <v>1287.4610911583641</v>
-      </c>
-      <c r="I4" s="19">
-        <v>127.67478108614645</v>
-      </c>
-      <c r="J4" s="19">
-        <v>127.67478108614645</v>
-      </c>
-      <c r="K4" s="19">
-        <v>786.29580340826658</v>
-      </c>
-      <c r="M4" s="19">
-        <v>14.787461376657419</v>
-      </c>
-      <c r="N4" s="19">
-        <v>94.362499999999997</v>
-      </c>
-      <c r="O4" s="19">
-        <v>7.3937306883287093</v>
-      </c>
-      <c r="P4" s="19">
-        <v>47.181249999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="19">
-        <v>145.53328184888377</v>
-      </c>
-      <c r="E5" s="19">
-        <v>193.66174420056959</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19">
-        <v>858.30739410557601</v>
-      </c>
-      <c r="I5" s="19">
-        <v>85.11652072409764</v>
-      </c>
-      <c r="J5" s="19">
-        <v>85.11652072409764</v>
-      </c>
-      <c r="K5" s="19">
-        <v>524.19720227217772</v>
-      </c>
-      <c r="M5" s="19">
-        <v>41.312474251104945</v>
-      </c>
-      <c r="N5" s="19">
-        <v>31.454166666666666</v>
-      </c>
-      <c r="O5" s="19">
-        <v>20.656237125552472</v>
-      </c>
-      <c r="P5" s="19">
-        <v>15.727083333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1769,13 +1693,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:D5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,21 +1731,21 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1852,34 +1776,6 @@
       </c>
       <c r="I3" s="11" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="19">
-        <v>44.543860258963434</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="19">
-        <v>214.319162260506</v>
-      </c>
-      <c r="I5" s="26">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1898,13 +1794,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:B19"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,10 +1819,10 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
@@ -1945,7 +1841,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="16">
         <v>0</v>
@@ -1959,7 +1855,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="16">
         <v>0</v>
@@ -1973,7 +1869,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="16">
         <v>0</v>
@@ -1987,7 +1883,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="16">
         <v>0</v>
@@ -2001,7 +1897,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="16">
         <v>0</v>
@@ -2015,7 +1911,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="16">
         <v>0</v>
@@ -2029,7 +1925,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="16">
         <v>0</v>
@@ -2043,7 +1939,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2053,7 +1949,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -2063,7 +1959,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="16">
         <v>0</v>
@@ -2077,7 +1973,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="19">
         <v>0</v>
@@ -2091,7 +1987,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="16">
         <v>0</v>
@@ -2105,7 +2001,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="16">
         <v>118.68621973162287</v>
@@ -2119,26 +2015,10 @@
         <v>77</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/XurtepNominas/bin/Debug/Archivos/nominas1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominas1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -530,7 +530,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -595,6 +595,12 @@
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -883,7 +889,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -920,6 +926,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -958,12 +971,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1371,13 +1378,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AE814"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1399,7 @@
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="42" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="29" customWidth="1"/>
     <col min="13" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
@@ -1438,48 +1445,48 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="29"/>
+      <c r="N1" s="32"/>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="28" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="29"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="28" t="s">
+      <c r="W1" s="32"/>
+      <c r="X1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="28" t="s">
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="29"/>
+      <c r="AA1" s="32"/>
       <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1492,6 +1499,2445 @@
       <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L82"/>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L83"/>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L99"/>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L101"/>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L102"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L103"/>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L104"/>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L105"/>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L106"/>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L107"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L108"/>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L109"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L110"/>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L111"/>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L112"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L113"/>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L114"/>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L115"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L116"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L117"/>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L118"/>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L119"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L120"/>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L121"/>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L122"/>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L123"/>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L124"/>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L125"/>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L126"/>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L127"/>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L128"/>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L129"/>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L130"/>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L131"/>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L132"/>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L133"/>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L134"/>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L135"/>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L136"/>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L137"/>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L138"/>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L139"/>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L140"/>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L141"/>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L142"/>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L143"/>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L144"/>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L145"/>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L146"/>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L147"/>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L148"/>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L149"/>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L150"/>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L151"/>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L152"/>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L153"/>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L154"/>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L155"/>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L156"/>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L157"/>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L158"/>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L159"/>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L160"/>
+    </row>
+    <row r="161" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L161"/>
+    </row>
+    <row r="162" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L162"/>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L163"/>
+    </row>
+    <row r="164" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L164"/>
+    </row>
+    <row r="165" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L165"/>
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L166"/>
+    </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L167"/>
+    </row>
+    <row r="168" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L168"/>
+    </row>
+    <row r="169" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L169"/>
+    </row>
+    <row r="170" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L170"/>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L171"/>
+    </row>
+    <row r="172" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L172"/>
+    </row>
+    <row r="173" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L173"/>
+    </row>
+    <row r="174" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L174"/>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L175"/>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L176"/>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L177"/>
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L178"/>
+    </row>
+    <row r="179" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L179"/>
+    </row>
+    <row r="180" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L180"/>
+    </row>
+    <row r="181" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L181"/>
+    </row>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L182"/>
+    </row>
+    <row r="183" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L183"/>
+    </row>
+    <row r="184" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L184"/>
+    </row>
+    <row r="185" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L185"/>
+    </row>
+    <row r="186" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L186"/>
+    </row>
+    <row r="187" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L187"/>
+    </row>
+    <row r="188" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L188"/>
+    </row>
+    <row r="189" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L189"/>
+    </row>
+    <row r="190" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L190"/>
+    </row>
+    <row r="191" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L191"/>
+    </row>
+    <row r="192" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L192"/>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L193"/>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L194"/>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L195"/>
+    </row>
+    <row r="196" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L196"/>
+    </row>
+    <row r="197" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L197"/>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L198"/>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L199"/>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L200"/>
+    </row>
+    <row r="201" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L201"/>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L202"/>
+    </row>
+    <row r="203" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L203"/>
+    </row>
+    <row r="204" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L204"/>
+    </row>
+    <row r="205" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L205"/>
+    </row>
+    <row r="206" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L206"/>
+    </row>
+    <row r="207" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L207"/>
+    </row>
+    <row r="208" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L208"/>
+    </row>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L209"/>
+    </row>
+    <row r="210" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L210"/>
+    </row>
+    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L211"/>
+    </row>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L212"/>
+    </row>
+    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L213"/>
+    </row>
+    <row r="214" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L214"/>
+    </row>
+    <row r="215" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L215"/>
+    </row>
+    <row r="216" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L216"/>
+    </row>
+    <row r="217" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L217"/>
+    </row>
+    <row r="218" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L218"/>
+    </row>
+    <row r="219" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L219"/>
+    </row>
+    <row r="220" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L220"/>
+    </row>
+    <row r="221" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L221"/>
+    </row>
+    <row r="222" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L222"/>
+    </row>
+    <row r="223" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L223"/>
+    </row>
+    <row r="224" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L224"/>
+    </row>
+    <row r="225" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L225"/>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L226"/>
+    </row>
+    <row r="227" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L227"/>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L228"/>
+    </row>
+    <row r="229" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L229"/>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L230"/>
+    </row>
+    <row r="231" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L231"/>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L232"/>
+    </row>
+    <row r="233" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L233"/>
+    </row>
+    <row r="234" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L234"/>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L235"/>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L236"/>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L237"/>
+    </row>
+    <row r="238" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L238"/>
+    </row>
+    <row r="239" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L239"/>
+    </row>
+    <row r="240" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L240"/>
+    </row>
+    <row r="241" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L241"/>
+    </row>
+    <row r="242" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L242"/>
+    </row>
+    <row r="243" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L243"/>
+    </row>
+    <row r="244" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L244"/>
+    </row>
+    <row r="245" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L245"/>
+    </row>
+    <row r="246" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L246"/>
+    </row>
+    <row r="247" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L247"/>
+    </row>
+    <row r="248" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L248"/>
+    </row>
+    <row r="249" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L249"/>
+    </row>
+    <row r="250" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L250"/>
+    </row>
+    <row r="251" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L251"/>
+    </row>
+    <row r="252" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L252"/>
+    </row>
+    <row r="253" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L253"/>
+    </row>
+    <row r="254" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L254"/>
+    </row>
+    <row r="255" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L255"/>
+    </row>
+    <row r="256" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L256"/>
+    </row>
+    <row r="257" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L257"/>
+    </row>
+    <row r="258" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L258"/>
+    </row>
+    <row r="259" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L259"/>
+    </row>
+    <row r="260" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L260"/>
+    </row>
+    <row r="261" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L261"/>
+    </row>
+    <row r="262" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L262"/>
+    </row>
+    <row r="263" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L263"/>
+    </row>
+    <row r="264" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L264"/>
+    </row>
+    <row r="265" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L265"/>
+    </row>
+    <row r="266" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L266"/>
+    </row>
+    <row r="267" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L267"/>
+    </row>
+    <row r="268" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L268"/>
+    </row>
+    <row r="269" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L269"/>
+    </row>
+    <row r="270" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L270"/>
+    </row>
+    <row r="271" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L271"/>
+    </row>
+    <row r="272" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L272"/>
+    </row>
+    <row r="273" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L273"/>
+    </row>
+    <row r="274" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L274"/>
+    </row>
+    <row r="275" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L275"/>
+    </row>
+    <row r="276" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L276"/>
+    </row>
+    <row r="277" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L277"/>
+    </row>
+    <row r="278" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L278"/>
+    </row>
+    <row r="279" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L279"/>
+    </row>
+    <row r="280" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L280"/>
+    </row>
+    <row r="281" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L281"/>
+    </row>
+    <row r="282" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L282"/>
+    </row>
+    <row r="283" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L283"/>
+    </row>
+    <row r="284" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L284"/>
+    </row>
+    <row r="285" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L285"/>
+    </row>
+    <row r="286" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L286"/>
+    </row>
+    <row r="287" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L287"/>
+    </row>
+    <row r="288" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L288"/>
+    </row>
+    <row r="289" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L289"/>
+    </row>
+    <row r="290" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L290"/>
+    </row>
+    <row r="291" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L291"/>
+    </row>
+    <row r="292" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L292"/>
+    </row>
+    <row r="293" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L293"/>
+    </row>
+    <row r="294" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L294"/>
+    </row>
+    <row r="295" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L295"/>
+    </row>
+    <row r="296" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L296"/>
+    </row>
+    <row r="297" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L297"/>
+    </row>
+    <row r="298" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L298"/>
+    </row>
+    <row r="299" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L299"/>
+    </row>
+    <row r="300" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L300"/>
+    </row>
+    <row r="301" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L301"/>
+    </row>
+    <row r="302" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L302"/>
+    </row>
+    <row r="303" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L303"/>
+    </row>
+    <row r="304" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L304"/>
+    </row>
+    <row r="305" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L305"/>
+    </row>
+    <row r="306" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L306"/>
+    </row>
+    <row r="307" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L307"/>
+    </row>
+    <row r="308" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L308"/>
+    </row>
+    <row r="309" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L309"/>
+    </row>
+    <row r="310" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L310"/>
+    </row>
+    <row r="311" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L311"/>
+    </row>
+    <row r="312" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L312"/>
+    </row>
+    <row r="313" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L313"/>
+    </row>
+    <row r="314" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L314"/>
+    </row>
+    <row r="315" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L315"/>
+    </row>
+    <row r="316" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L316"/>
+    </row>
+    <row r="317" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L317"/>
+    </row>
+    <row r="318" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L318"/>
+    </row>
+    <row r="319" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L319"/>
+    </row>
+    <row r="320" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L320"/>
+    </row>
+    <row r="321" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L321"/>
+    </row>
+    <row r="322" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L322"/>
+    </row>
+    <row r="323" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L323"/>
+    </row>
+    <row r="324" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L324"/>
+    </row>
+    <row r="325" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L325"/>
+    </row>
+    <row r="326" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L326"/>
+    </row>
+    <row r="327" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L327"/>
+    </row>
+    <row r="328" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L328"/>
+    </row>
+    <row r="329" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L329"/>
+    </row>
+    <row r="330" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L330"/>
+    </row>
+    <row r="331" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L331"/>
+    </row>
+    <row r="332" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L332"/>
+    </row>
+    <row r="333" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L333"/>
+    </row>
+    <row r="334" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L334"/>
+    </row>
+    <row r="335" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L335"/>
+    </row>
+    <row r="336" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L336"/>
+    </row>
+    <row r="337" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L337"/>
+    </row>
+    <row r="338" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L338"/>
+    </row>
+    <row r="339" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L339"/>
+    </row>
+    <row r="340" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L340"/>
+    </row>
+    <row r="341" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L341"/>
+    </row>
+    <row r="342" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L342"/>
+    </row>
+    <row r="343" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L343"/>
+    </row>
+    <row r="344" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L344"/>
+    </row>
+    <row r="345" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L345"/>
+    </row>
+    <row r="346" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L346"/>
+    </row>
+    <row r="347" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L347"/>
+    </row>
+    <row r="348" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L348"/>
+    </row>
+    <row r="349" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L349"/>
+    </row>
+    <row r="350" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L350"/>
+    </row>
+    <row r="351" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L351"/>
+    </row>
+    <row r="352" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L352"/>
+    </row>
+    <row r="353" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L353"/>
+    </row>
+    <row r="354" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L354"/>
+    </row>
+    <row r="355" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L355"/>
+    </row>
+    <row r="356" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L356"/>
+    </row>
+    <row r="357" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L357"/>
+    </row>
+    <row r="358" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L358"/>
+    </row>
+    <row r="359" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L359"/>
+    </row>
+    <row r="360" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L360"/>
+    </row>
+    <row r="361" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L361"/>
+    </row>
+    <row r="362" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L362"/>
+    </row>
+    <row r="363" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L363"/>
+    </row>
+    <row r="364" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L364"/>
+    </row>
+    <row r="365" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L365"/>
+    </row>
+    <row r="366" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L366"/>
+    </row>
+    <row r="367" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L367"/>
+    </row>
+    <row r="368" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L368"/>
+    </row>
+    <row r="369" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L369"/>
+    </row>
+    <row r="370" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L370"/>
+    </row>
+    <row r="371" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L371"/>
+    </row>
+    <row r="372" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L372"/>
+    </row>
+    <row r="373" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L373"/>
+    </row>
+    <row r="374" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L374"/>
+    </row>
+    <row r="375" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L375"/>
+    </row>
+    <row r="376" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L376"/>
+    </row>
+    <row r="377" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L377"/>
+    </row>
+    <row r="378" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L378"/>
+    </row>
+    <row r="379" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L379"/>
+    </row>
+    <row r="380" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L380"/>
+    </row>
+    <row r="381" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L381"/>
+    </row>
+    <row r="382" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L382"/>
+    </row>
+    <row r="383" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L383"/>
+    </row>
+    <row r="384" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L384"/>
+    </row>
+    <row r="385" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L385"/>
+    </row>
+    <row r="386" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L386"/>
+    </row>
+    <row r="387" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L387"/>
+    </row>
+    <row r="388" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L388"/>
+    </row>
+    <row r="389" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L389"/>
+    </row>
+    <row r="390" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L390"/>
+    </row>
+    <row r="391" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L391"/>
+    </row>
+    <row r="392" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L392"/>
+    </row>
+    <row r="393" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L393"/>
+    </row>
+    <row r="394" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L394"/>
+    </row>
+    <row r="395" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L395"/>
+    </row>
+    <row r="396" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L396"/>
+    </row>
+    <row r="397" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L397"/>
+    </row>
+    <row r="398" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L398"/>
+    </row>
+    <row r="399" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L399"/>
+    </row>
+    <row r="400" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L400"/>
+    </row>
+    <row r="401" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L401"/>
+    </row>
+    <row r="402" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L402"/>
+    </row>
+    <row r="403" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L403"/>
+    </row>
+    <row r="404" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L404"/>
+    </row>
+    <row r="405" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L405"/>
+    </row>
+    <row r="406" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L406"/>
+    </row>
+    <row r="407" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L407"/>
+    </row>
+    <row r="408" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L408"/>
+    </row>
+    <row r="409" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L409"/>
+    </row>
+    <row r="410" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L410"/>
+    </row>
+    <row r="411" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L411"/>
+    </row>
+    <row r="412" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L412"/>
+    </row>
+    <row r="413" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L413"/>
+    </row>
+    <row r="414" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L414"/>
+    </row>
+    <row r="415" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L415"/>
+    </row>
+    <row r="416" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L416"/>
+    </row>
+    <row r="417" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L417"/>
+    </row>
+    <row r="418" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L418"/>
+    </row>
+    <row r="419" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L419"/>
+    </row>
+    <row r="420" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L420"/>
+    </row>
+    <row r="421" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L421"/>
+    </row>
+    <row r="422" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L422"/>
+    </row>
+    <row r="423" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L423"/>
+    </row>
+    <row r="424" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L424"/>
+    </row>
+    <row r="425" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L425"/>
+    </row>
+    <row r="426" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L426"/>
+    </row>
+    <row r="427" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L427"/>
+    </row>
+    <row r="428" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L428"/>
+    </row>
+    <row r="429" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L429"/>
+    </row>
+    <row r="430" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L430"/>
+    </row>
+    <row r="431" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L431"/>
+    </row>
+    <row r="432" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L432"/>
+    </row>
+    <row r="433" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L433"/>
+    </row>
+    <row r="434" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L434"/>
+    </row>
+    <row r="435" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L435"/>
+    </row>
+    <row r="436" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L436"/>
+    </row>
+    <row r="437" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L437"/>
+    </row>
+    <row r="438" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L438"/>
+    </row>
+    <row r="439" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L439"/>
+    </row>
+    <row r="440" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L440"/>
+    </row>
+    <row r="441" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L441"/>
+    </row>
+    <row r="442" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L442"/>
+    </row>
+    <row r="443" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L443"/>
+    </row>
+    <row r="444" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L444"/>
+    </row>
+    <row r="445" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L445"/>
+    </row>
+    <row r="446" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L446"/>
+    </row>
+    <row r="447" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L447"/>
+    </row>
+    <row r="448" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L448"/>
+    </row>
+    <row r="449" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L449"/>
+    </row>
+    <row r="450" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L450"/>
+    </row>
+    <row r="451" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L451"/>
+    </row>
+    <row r="452" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L452"/>
+    </row>
+    <row r="453" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L453"/>
+    </row>
+    <row r="454" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L454"/>
+    </row>
+    <row r="455" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L455"/>
+    </row>
+    <row r="456" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L456"/>
+    </row>
+    <row r="457" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L457"/>
+    </row>
+    <row r="458" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L458"/>
+    </row>
+    <row r="459" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L459"/>
+    </row>
+    <row r="460" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L460"/>
+    </row>
+    <row r="461" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L461"/>
+    </row>
+    <row r="462" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L462"/>
+    </row>
+    <row r="463" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L463"/>
+    </row>
+    <row r="464" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L464"/>
+    </row>
+    <row r="465" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L465"/>
+    </row>
+    <row r="466" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L466"/>
+    </row>
+    <row r="467" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L467"/>
+    </row>
+    <row r="468" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L468"/>
+    </row>
+    <row r="469" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L469"/>
+    </row>
+    <row r="470" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L470"/>
+    </row>
+    <row r="471" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L471"/>
+    </row>
+    <row r="472" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L472"/>
+    </row>
+    <row r="473" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L473"/>
+    </row>
+    <row r="474" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L474"/>
+    </row>
+    <row r="475" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L475"/>
+    </row>
+    <row r="476" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L476"/>
+    </row>
+    <row r="477" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L477"/>
+    </row>
+    <row r="478" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L478"/>
+    </row>
+    <row r="479" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L479"/>
+    </row>
+    <row r="480" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L480"/>
+    </row>
+    <row r="481" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L481"/>
+    </row>
+    <row r="482" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L482"/>
+    </row>
+    <row r="483" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L483"/>
+    </row>
+    <row r="484" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L484"/>
+    </row>
+    <row r="485" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L485"/>
+    </row>
+    <row r="486" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L486"/>
+    </row>
+    <row r="487" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L487"/>
+    </row>
+    <row r="488" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L488"/>
+    </row>
+    <row r="489" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L489"/>
+    </row>
+    <row r="490" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L490"/>
+    </row>
+    <row r="491" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L491"/>
+    </row>
+    <row r="492" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L492"/>
+    </row>
+    <row r="493" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L493"/>
+    </row>
+    <row r="494" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L494"/>
+    </row>
+    <row r="495" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L495"/>
+    </row>
+    <row r="496" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L496"/>
+    </row>
+    <row r="497" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L497"/>
+    </row>
+    <row r="498" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L498"/>
+    </row>
+    <row r="499" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L499"/>
+    </row>
+    <row r="500" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L500"/>
+    </row>
+    <row r="501" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L501"/>
+    </row>
+    <row r="502" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L502"/>
+    </row>
+    <row r="503" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L503"/>
+    </row>
+    <row r="504" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L504"/>
+    </row>
+    <row r="505" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L505"/>
+    </row>
+    <row r="506" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L506"/>
+    </row>
+    <row r="507" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L507"/>
+    </row>
+    <row r="508" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L508"/>
+    </row>
+    <row r="509" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L509"/>
+    </row>
+    <row r="510" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L510"/>
+    </row>
+    <row r="511" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L511"/>
+    </row>
+    <row r="512" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L512"/>
+    </row>
+    <row r="513" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L513"/>
+    </row>
+    <row r="514" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L514"/>
+    </row>
+    <row r="515" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L515"/>
+    </row>
+    <row r="516" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L516"/>
+    </row>
+    <row r="517" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L517"/>
+    </row>
+    <row r="518" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L518"/>
+    </row>
+    <row r="519" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L519"/>
+    </row>
+    <row r="520" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L520"/>
+    </row>
+    <row r="521" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L521"/>
+    </row>
+    <row r="522" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L522"/>
+    </row>
+    <row r="523" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L523"/>
+    </row>
+    <row r="524" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L524"/>
+    </row>
+    <row r="525" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L525"/>
+    </row>
+    <row r="526" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L526"/>
+    </row>
+    <row r="527" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L527"/>
+    </row>
+    <row r="528" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L528"/>
+    </row>
+    <row r="529" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L529"/>
+    </row>
+    <row r="530" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L530"/>
+    </row>
+    <row r="531" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L531"/>
+    </row>
+    <row r="532" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L532"/>
+    </row>
+    <row r="533" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L533"/>
+    </row>
+    <row r="534" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L534"/>
+    </row>
+    <row r="535" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L535"/>
+    </row>
+    <row r="536" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L536"/>
+    </row>
+    <row r="537" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L537"/>
+    </row>
+    <row r="538" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L538"/>
+    </row>
+    <row r="539" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L539"/>
+    </row>
+    <row r="540" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L540"/>
+    </row>
+    <row r="541" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L541"/>
+    </row>
+    <row r="542" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L542"/>
+    </row>
+    <row r="543" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L543"/>
+    </row>
+    <row r="544" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L544"/>
+    </row>
+    <row r="545" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L545"/>
+    </row>
+    <row r="546" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L546"/>
+    </row>
+    <row r="547" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L547"/>
+    </row>
+    <row r="548" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L548"/>
+    </row>
+    <row r="549" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L549"/>
+    </row>
+    <row r="550" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L550"/>
+    </row>
+    <row r="551" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L551"/>
+    </row>
+    <row r="552" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L552"/>
+    </row>
+    <row r="553" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L553"/>
+    </row>
+    <row r="554" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L554"/>
+    </row>
+    <row r="555" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L555"/>
+    </row>
+    <row r="556" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L556"/>
+    </row>
+    <row r="557" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L557"/>
+    </row>
+    <row r="558" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L558"/>
+    </row>
+    <row r="559" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L559"/>
+    </row>
+    <row r="560" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L560"/>
+    </row>
+    <row r="561" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L561"/>
+    </row>
+    <row r="562" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L562"/>
+    </row>
+    <row r="563" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L563"/>
+    </row>
+    <row r="564" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L564"/>
+    </row>
+    <row r="565" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L565"/>
+    </row>
+    <row r="566" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L566"/>
+    </row>
+    <row r="567" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L567"/>
+    </row>
+    <row r="568" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L568"/>
+    </row>
+    <row r="569" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L569"/>
+    </row>
+    <row r="570" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L570"/>
+    </row>
+    <row r="571" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L571"/>
+    </row>
+    <row r="572" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L572"/>
+    </row>
+    <row r="573" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L573"/>
+    </row>
+    <row r="574" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L574"/>
+    </row>
+    <row r="575" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L575"/>
+    </row>
+    <row r="576" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L576"/>
+    </row>
+    <row r="577" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L577"/>
+    </row>
+    <row r="578" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L578"/>
+    </row>
+    <row r="579" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L579"/>
+    </row>
+    <row r="580" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L580"/>
+    </row>
+    <row r="581" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L581"/>
+    </row>
+    <row r="582" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L582"/>
+    </row>
+    <row r="583" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L583"/>
+    </row>
+    <row r="584" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L584"/>
+    </row>
+    <row r="585" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L585"/>
+    </row>
+    <row r="586" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L586"/>
+    </row>
+    <row r="587" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L587"/>
+    </row>
+    <row r="588" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L588"/>
+    </row>
+    <row r="589" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L589"/>
+    </row>
+    <row r="590" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L590"/>
+    </row>
+    <row r="591" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L591"/>
+    </row>
+    <row r="592" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L592"/>
+    </row>
+    <row r="593" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L593"/>
+    </row>
+    <row r="594" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L594"/>
+    </row>
+    <row r="595" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L595"/>
+    </row>
+    <row r="596" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L596"/>
+    </row>
+    <row r="597" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L597"/>
+    </row>
+    <row r="598" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L598"/>
+    </row>
+    <row r="599" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L599"/>
+    </row>
+    <row r="600" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L600"/>
+    </row>
+    <row r="601" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L601"/>
+    </row>
+    <row r="602" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L602"/>
+    </row>
+    <row r="603" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L603"/>
+    </row>
+    <row r="604" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L604"/>
+    </row>
+    <row r="605" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L605"/>
+    </row>
+    <row r="606" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L606"/>
+    </row>
+    <row r="607" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L607"/>
+    </row>
+    <row r="608" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L608"/>
+    </row>
+    <row r="609" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L609"/>
+    </row>
+    <row r="610" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L610"/>
+    </row>
+    <row r="611" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L611"/>
+    </row>
+    <row r="612" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L612"/>
+    </row>
+    <row r="613" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L613"/>
+    </row>
+    <row r="614" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L614"/>
+    </row>
+    <row r="615" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L615"/>
+    </row>
+    <row r="616" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L616"/>
+    </row>
+    <row r="617" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L617"/>
+    </row>
+    <row r="618" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L618"/>
+    </row>
+    <row r="619" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L619"/>
+    </row>
+    <row r="620" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L620"/>
+    </row>
+    <row r="621" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L621"/>
+    </row>
+    <row r="622" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L622"/>
+    </row>
+    <row r="623" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L623"/>
+    </row>
+    <row r="624" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L624"/>
+    </row>
+    <row r="625" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L625"/>
+    </row>
+    <row r="626" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L626"/>
+    </row>
+    <row r="627" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L627"/>
+    </row>
+    <row r="628" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L628"/>
+    </row>
+    <row r="629" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L629"/>
+    </row>
+    <row r="630" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L630"/>
+    </row>
+    <row r="631" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L631"/>
+    </row>
+    <row r="632" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L632"/>
+    </row>
+    <row r="633" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L633"/>
+    </row>
+    <row r="634" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L634"/>
+    </row>
+    <row r="635" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L635"/>
+    </row>
+    <row r="636" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L636"/>
+    </row>
+    <row r="637" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L637"/>
+    </row>
+    <row r="638" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L638"/>
+    </row>
+    <row r="639" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L639"/>
+    </row>
+    <row r="640" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L640"/>
+    </row>
+    <row r="641" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L641"/>
+    </row>
+    <row r="642" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L642"/>
+    </row>
+    <row r="643" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L643"/>
+    </row>
+    <row r="644" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L644"/>
+    </row>
+    <row r="645" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L645"/>
+    </row>
+    <row r="646" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L646"/>
+    </row>
+    <row r="647" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L647"/>
+    </row>
+    <row r="648" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L648"/>
+    </row>
+    <row r="649" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L649"/>
+    </row>
+    <row r="650" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L650"/>
+    </row>
+    <row r="651" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L651"/>
+    </row>
+    <row r="652" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L652"/>
+    </row>
+    <row r="653" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L653"/>
+    </row>
+    <row r="654" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L654"/>
+    </row>
+    <row r="655" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L655"/>
+    </row>
+    <row r="656" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L656"/>
+    </row>
+    <row r="657" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L657"/>
+    </row>
+    <row r="658" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L658"/>
+    </row>
+    <row r="659" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L659"/>
+    </row>
+    <row r="660" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L660"/>
+    </row>
+    <row r="661" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L661"/>
+    </row>
+    <row r="662" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L662"/>
+    </row>
+    <row r="663" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L663"/>
+    </row>
+    <row r="664" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L664"/>
+    </row>
+    <row r="665" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L665"/>
+    </row>
+    <row r="666" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L666"/>
+    </row>
+    <row r="667" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L667"/>
+    </row>
+    <row r="668" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L668"/>
+    </row>
+    <row r="669" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L669"/>
+    </row>
+    <row r="670" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L670"/>
+    </row>
+    <row r="671" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L671"/>
+    </row>
+    <row r="672" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L672"/>
+    </row>
+    <row r="673" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L673"/>
+    </row>
+    <row r="674" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L674"/>
+    </row>
+    <row r="675" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L675"/>
+    </row>
+    <row r="676" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L676"/>
+    </row>
+    <row r="677" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L677"/>
+    </row>
+    <row r="678" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L678"/>
+    </row>
+    <row r="679" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L679"/>
+    </row>
+    <row r="680" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L680"/>
+    </row>
+    <row r="681" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L681"/>
+    </row>
+    <row r="682" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L682"/>
+    </row>
+    <row r="683" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L683"/>
+    </row>
+    <row r="684" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L684"/>
+    </row>
+    <row r="685" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L685"/>
+    </row>
+    <row r="686" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L686"/>
+    </row>
+    <row r="687" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L687"/>
+    </row>
+    <row r="688" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L688"/>
+    </row>
+    <row r="689" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L689"/>
+    </row>
+    <row r="690" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L690"/>
+    </row>
+    <row r="691" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L691"/>
+    </row>
+    <row r="692" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L692"/>
+    </row>
+    <row r="693" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L693"/>
+    </row>
+    <row r="694" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L694"/>
+    </row>
+    <row r="695" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L695"/>
+    </row>
+    <row r="696" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L696"/>
+    </row>
+    <row r="697" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L697"/>
+    </row>
+    <row r="698" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L698"/>
+    </row>
+    <row r="699" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L699"/>
+    </row>
+    <row r="700" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L700"/>
+    </row>
+    <row r="701" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L701"/>
+    </row>
+    <row r="702" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L702"/>
+    </row>
+    <row r="703" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L703"/>
+    </row>
+    <row r="704" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L704"/>
+    </row>
+    <row r="705" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L705"/>
+    </row>
+    <row r="706" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L706"/>
+    </row>
+    <row r="707" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L707"/>
+    </row>
+    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L708"/>
+    </row>
+    <row r="709" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L709"/>
+    </row>
+    <row r="710" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L710"/>
+    </row>
+    <row r="711" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L711"/>
+    </row>
+    <row r="712" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L712"/>
+    </row>
+    <row r="713" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L713"/>
+    </row>
+    <row r="714" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L714"/>
+    </row>
+    <row r="715" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L715"/>
+    </row>
+    <row r="716" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L716"/>
+    </row>
+    <row r="717" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L717"/>
+    </row>
+    <row r="718" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L718"/>
+    </row>
+    <row r="719" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L719"/>
+    </row>
+    <row r="720" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L720"/>
+    </row>
+    <row r="721" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L721"/>
+    </row>
+    <row r="722" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L722"/>
+    </row>
+    <row r="723" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L723"/>
+    </row>
+    <row r="724" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L724"/>
+    </row>
+    <row r="725" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L725"/>
+    </row>
+    <row r="726" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L726"/>
+    </row>
+    <row r="727" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L727"/>
+    </row>
+    <row r="728" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L728"/>
+    </row>
+    <row r="729" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L729"/>
+    </row>
+    <row r="730" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L730"/>
+    </row>
+    <row r="731" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L731"/>
+    </row>
+    <row r="732" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L732"/>
+    </row>
+    <row r="733" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L733"/>
+    </row>
+    <row r="734" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L734"/>
+    </row>
+    <row r="735" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L735"/>
+    </row>
+    <row r="736" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L736"/>
+    </row>
+    <row r="737" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L737"/>
+    </row>
+    <row r="738" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L738"/>
+    </row>
+    <row r="739" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L739"/>
+    </row>
+    <row r="740" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L740"/>
+    </row>
+    <row r="741" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L741"/>
+    </row>
+    <row r="742" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L742"/>
+    </row>
+    <row r="743" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L743"/>
+    </row>
+    <row r="744" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L744"/>
+    </row>
+    <row r="745" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L745"/>
+    </row>
+    <row r="746" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L746"/>
+    </row>
+    <row r="747" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L747"/>
+    </row>
+    <row r="748" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L748"/>
+    </row>
+    <row r="749" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L749"/>
+    </row>
+    <row r="750" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L750"/>
+    </row>
+    <row r="751" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L751"/>
+    </row>
+    <row r="752" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L752"/>
+    </row>
+    <row r="753" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L753"/>
+    </row>
+    <row r="754" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L754"/>
+    </row>
+    <row r="755" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L755"/>
+    </row>
+    <row r="756" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L756"/>
+    </row>
+    <row r="757" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L757"/>
+    </row>
+    <row r="758" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L758"/>
+    </row>
+    <row r="759" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L759"/>
+    </row>
+    <row r="760" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L760"/>
+    </row>
+    <row r="761" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L761"/>
+    </row>
+    <row r="762" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L762"/>
+    </row>
+    <row r="763" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L763"/>
+    </row>
+    <row r="764" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L764"/>
+    </row>
+    <row r="765" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L765"/>
+    </row>
+    <row r="766" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L766"/>
+    </row>
+    <row r="767" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L767"/>
+    </row>
+    <row r="768" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L768"/>
+    </row>
+    <row r="769" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L769"/>
+    </row>
+    <row r="770" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L770"/>
+    </row>
+    <row r="771" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L771"/>
+    </row>
+    <row r="772" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L772"/>
+    </row>
+    <row r="773" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L773"/>
+    </row>
+    <row r="774" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L774"/>
+    </row>
+    <row r="775" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L775"/>
+    </row>
+    <row r="776" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L776"/>
+    </row>
+    <row r="777" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L777"/>
+    </row>
+    <row r="778" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L778"/>
+    </row>
+    <row r="779" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L779"/>
+    </row>
+    <row r="780" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L780"/>
+    </row>
+    <row r="781" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L781"/>
+    </row>
+    <row r="782" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L782"/>
+    </row>
+    <row r="783" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L783"/>
+    </row>
+    <row r="784" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L784"/>
+    </row>
+    <row r="785" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L785"/>
+    </row>
+    <row r="786" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L786"/>
+    </row>
+    <row r="787" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L787"/>
+    </row>
+    <row r="788" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L788"/>
+    </row>
+    <row r="789" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L789"/>
+    </row>
+    <row r="790" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L790"/>
+    </row>
+    <row r="791" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L791"/>
+    </row>
+    <row r="792" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L792"/>
+    </row>
+    <row r="793" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L793"/>
+    </row>
+    <row r="794" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L794"/>
+    </row>
+    <row r="795" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L795"/>
+    </row>
+    <row r="796" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L796"/>
+    </row>
+    <row r="797" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L797"/>
+    </row>
+    <row r="798" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L798"/>
+    </row>
+    <row r="799" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L799"/>
+    </row>
+    <row r="800" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L800"/>
+    </row>
+    <row r="801" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L801"/>
+    </row>
+    <row r="802" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L802"/>
+    </row>
+    <row r="803" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L803"/>
+    </row>
+    <row r="804" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L804"/>
+    </row>
+    <row r="805" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L805" s="30"/>
+    </row>
+    <row r="806" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L806" s="30"/>
+    </row>
+    <row r="807" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L807" s="30"/>
+    </row>
+    <row r="808" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L808" s="30"/>
+    </row>
+    <row r="809" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L809" s="30"/>
+    </row>
+    <row r="810" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L810" s="30"/>
+    </row>
+    <row r="811" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L811" s="30"/>
+    </row>
+    <row r="812" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L812" s="30"/>
+    </row>
+    <row r="813" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L813" s="30"/>
+    </row>
+    <row r="814" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L814" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1504,7 +3950,8 @@
     <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1566,43 +4013,43 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="31" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="31" t="s">
+      <c r="P2" s="37"/>
+      <c r="Q2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="32"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="35"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1695,7 +4142,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1731,21 +4178,21 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="37" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="39" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1819,10 +4266,10 @@
       <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">

--- a/XurtepNominas/bin/Debug/Archivos/nominas1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominas1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -436,90 +436,6 @@
   </si>
   <si>
     <t>Subsidio Causado</t>
-  </si>
-  <si>
-    <t>MORE6301192Q2</t>
-  </si>
-  <si>
-    <t>PEPR640104TP9</t>
-  </si>
-  <si>
-    <t>ZAFJ710528LE0</t>
-  </si>
-  <si>
-    <t>ROPJ801020T1A</t>
-  </si>
-  <si>
-    <t>LISJ840429269</t>
-  </si>
-  <si>
-    <t>LOCE680623V3A</t>
-  </si>
-  <si>
-    <t>GISG7811067NA</t>
-  </si>
-  <si>
-    <t>PISM9311228H0</t>
-  </si>
-  <si>
-    <t>GOFJ930422EZ9</t>
-  </si>
-  <si>
-    <t>VAZC790718V96</t>
-  </si>
-  <si>
-    <t>GAGE920221VC4</t>
-  </si>
-  <si>
-    <t>RARS8001202P4</t>
-  </si>
-  <si>
-    <t>AUDF850610SD6</t>
-  </si>
-  <si>
-    <t>SAHW92050291A</t>
-  </si>
-  <si>
-    <t>MORALES RAMOS ESTEBAN</t>
-  </si>
-  <si>
-    <t>PEREZ PEREZ RIGOBERTO</t>
-  </si>
-  <si>
-    <t>ZAMBRANO FLORES JORGE</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ PULIDO JORGE ULISES</t>
-  </si>
-  <si>
-    <t>LIZARRAGA SIQUEIROS JOSE</t>
-  </si>
-  <si>
-    <t>LOPEZ CARRILLO ERIS</t>
-  </si>
-  <si>
-    <t>GIL SALAZAR GONZALO</t>
-  </si>
-  <si>
-    <t>PIMENTEL SASTRE MANUEL DE JESUS</t>
-  </si>
-  <si>
-    <t>GONZALEZ FERRERA JORGE LUIS</t>
-  </si>
-  <si>
-    <t>VALDEZ ZAZUETA CARLOS MIGUEL</t>
-  </si>
-  <si>
-    <t>GARCIA GONZALEZ ETHAN ORLANDO</t>
-  </si>
-  <si>
-    <t>RAMOS RODRIGUEZ SERGIO ALBERTO</t>
-  </si>
-  <si>
-    <t>ANGULO DOMINGUEZ FRANCISCO</t>
-  </si>
-  <si>
-    <t>SANTAMARIA HERNANDEZ WIDSON JESUS</t>
   </si>
 </sst>
 </file>
@@ -530,7 +446,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -594,17 +510,12 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,12 +538,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -889,7 +794,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -908,14 +813,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -932,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1389,17 +1286,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="27" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="23" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="29" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="25" customWidth="1"/>
     <col min="13" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" customWidth="1"/>
@@ -1409,8 +1306,8 @@
     <col min="20" max="20" width="17.7109375" customWidth="1"/>
     <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" style="27" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" style="27" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" style="23" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" style="23" customWidth="1"/>
     <col min="28" max="28" width="16.7109375" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" customWidth="1"/>
     <col min="30" max="30" width="23.7109375" customWidth="1"/>
@@ -1418,10 +1315,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1430,10 +1327,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1445,48 +1342,48 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="31" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="32"/>
+      <c r="S1" s="28"/>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="32"/>
-      <c r="X1" s="31" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="31" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="32"/>
+      <c r="AA1" s="28"/>
       <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3910,34 +3807,34 @@
       <c r="L804"/>
     </row>
     <row r="805" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L805" s="30"/>
+      <c r="L805" s="26"/>
     </row>
     <row r="806" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L806" s="30"/>
+      <c r="L806" s="26"/>
     </row>
     <row r="807" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L807" s="30"/>
+      <c r="L807" s="26"/>
     </row>
     <row r="808" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L808" s="30"/>
+      <c r="L808" s="26"/>
     </row>
     <row r="809" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L809" s="30"/>
+      <c r="L809" s="26"/>
     </row>
     <row r="810" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L810" s="30"/>
+      <c r="L810" s="26"/>
     </row>
     <row r="811" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L811" s="30"/>
+      <c r="L811" s="26"/>
     </row>
     <row r="812" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L812" s="30"/>
+      <c r="L812" s="26"/>
     </row>
     <row r="813" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L813" s="30"/>
+      <c r="L813" s="26"/>
     </row>
     <row r="814" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L814" s="30"/>
+      <c r="L814" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4013,43 +3910,43 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="34" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="34" t="s">
+      <c r="P2" s="33"/>
+      <c r="Q2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="35"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="31"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4142,7 +4039,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4178,21 +4075,21 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="40" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4241,231 +4138,47 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="20"/>
-    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="17.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="16"/>
+    <col min="4" max="4" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="43"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="16">
-        <v>118.68621973162287</v>
-      </c>
-      <c r="D16" s="16">
-        <v>406.62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/XurtepNominas/bin/Debug/Archivos/nominas1.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/nominas1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -3857,7 +3857,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4050,8 +4050,9 @@
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4140,11 +4141,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD17"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
